--- a/debug/POL_debug.xlsx
+++ b/debug/POL_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE423"/>
+  <dimension ref="A1:AE430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43221,13 +43221,13 @@
         <v>0.1893</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1931</v>
+        <v>0.1981</v>
       </c>
       <c r="D423" t="n">
         <v>0.1865</v>
       </c>
       <c r="E423" t="n">
-        <v>0.1913</v>
+        <v>0.1952</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -43265,7 +43265,7 @@
         <v>0.1519</v>
       </c>
       <c r="Q423" t="n">
-        <v>27.123107</v>
+        <v>30.414747</v>
       </c>
       <c r="R423" t="n">
         <v>98.5</v>
@@ -43310,6 +43310,713 @@
       </c>
       <c r="AE423" t="n">
         <v>0.1865</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.2031</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.1915</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G424" t="b">
+        <v>1</v>
+      </c>
+      <c r="H424" t="n">
+        <v>7</v>
+      </c>
+      <c r="I424" t="n">
+        <v/>
+      </c>
+      <c r="J424" t="n">
+        <v/>
+      </c>
+      <c r="K424" t="n">
+        <v/>
+      </c>
+      <c r="L424" t="n">
+        <v/>
+      </c>
+      <c r="M424" t="n">
+        <v/>
+      </c>
+      <c r="N424" t="n">
+        <v/>
+      </c>
+      <c r="O424" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>33.706386</v>
+      </c>
+      <c r="R424" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S424" t="n">
+        <v>7</v>
+      </c>
+      <c r="T424" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U424" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W424" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X424" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC424" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD424" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE424" t="n">
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.2051</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.1928</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.1938</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G425" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" t="n">
+        <v>7</v>
+      </c>
+      <c r="I425" t="n">
+        <v/>
+      </c>
+      <c r="J425" t="n">
+        <v/>
+      </c>
+      <c r="K425" t="n">
+        <v/>
+      </c>
+      <c r="L425" t="n">
+        <v/>
+      </c>
+      <c r="M425" t="n">
+        <v/>
+      </c>
+      <c r="N425" t="n">
+        <v/>
+      </c>
+      <c r="O425" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>35.023041</v>
+      </c>
+      <c r="R425" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S425" t="n">
+        <v>7</v>
+      </c>
+      <c r="T425" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U425" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V425" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W425" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X425" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB425" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC425" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD425" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE425" t="n">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1938</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.1841</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G426" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>7</v>
+      </c>
+      <c r="I426" t="n">
+        <v/>
+      </c>
+      <c r="J426" t="n">
+        <v/>
+      </c>
+      <c r="K426" t="n">
+        <v/>
+      </c>
+      <c r="L426" t="n">
+        <v/>
+      </c>
+      <c r="M426" t="n">
+        <v/>
+      </c>
+      <c r="N426" t="n">
+        <v/>
+      </c>
+      <c r="O426" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>28.966425</v>
+      </c>
+      <c r="R426" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S426" t="n">
+        <v>7</v>
+      </c>
+      <c r="T426" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U426" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V426" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W426" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X426" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB426" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC426" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD426" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE426" t="n">
+        <v>0.1841</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G427" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" t="n">
+        <v>7</v>
+      </c>
+      <c r="I427" t="n">
+        <v/>
+      </c>
+      <c r="J427" t="n">
+        <v/>
+      </c>
+      <c r="K427" t="n">
+        <v/>
+      </c>
+      <c r="L427" t="n">
+        <v/>
+      </c>
+      <c r="M427" t="n">
+        <v/>
+      </c>
+      <c r="N427" t="n">
+        <v/>
+      </c>
+      <c r="O427" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>28.37393</v>
+      </c>
+      <c r="R427" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S427" t="n">
+        <v>7</v>
+      </c>
+      <c r="T427" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U427" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V427" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W427" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X427" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB427" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC427" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD427" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE427" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1976</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.1906</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G428" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" t="n">
+        <v>7</v>
+      </c>
+      <c r="I428" t="n">
+        <v/>
+      </c>
+      <c r="J428" t="n">
+        <v/>
+      </c>
+      <c r="K428" t="n">
+        <v/>
+      </c>
+      <c r="L428" t="n">
+        <v/>
+      </c>
+      <c r="M428" t="n">
+        <v/>
+      </c>
+      <c r="N428" t="n">
+        <v/>
+      </c>
+      <c r="O428" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>30.085583</v>
+      </c>
+      <c r="R428" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S428" t="n">
+        <v>7</v>
+      </c>
+      <c r="T428" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U428" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W428" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X428" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB428" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC428" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD428" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE428" t="n">
+        <v>0.1906</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.1948</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1972</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.1927</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G429" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" t="n">
+        <v>7</v>
+      </c>
+      <c r="I429" t="n">
+        <v/>
+      </c>
+      <c r="J429" t="n">
+        <v/>
+      </c>
+      <c r="K429" t="n">
+        <v/>
+      </c>
+      <c r="L429" t="n">
+        <v/>
+      </c>
+      <c r="M429" t="n">
+        <v/>
+      </c>
+      <c r="N429" t="n">
+        <v/>
+      </c>
+      <c r="O429" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>29.822251</v>
+      </c>
+      <c r="R429" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S429" t="n">
+        <v>7</v>
+      </c>
+      <c r="T429" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U429" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V429" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W429" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X429" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB429" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC429" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD429" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE429" t="n">
+        <v>0.1927</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2022</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.1937</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G430" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>7</v>
+      </c>
+      <c r="I430" t="n">
+        <v/>
+      </c>
+      <c r="J430" t="n">
+        <v/>
+      </c>
+      <c r="K430" t="n">
+        <v/>
+      </c>
+      <c r="L430" t="n">
+        <v/>
+      </c>
+      <c r="M430" t="n">
+        <v/>
+      </c>
+      <c r="N430" t="n">
+        <v/>
+      </c>
+      <c r="O430" t="n">
+        <v>0.7685</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>33.113891</v>
+      </c>
+      <c r="R430" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="S430" t="n">
+        <v>7</v>
+      </c>
+      <c r="T430" t="n">
+        <v>0.43036</v>
+      </c>
+      <c r="U430" t="n">
+        <v>0.39962</v>
+      </c>
+      <c r="V430" t="n">
+        <v>0.35351</v>
+      </c>
+      <c r="W430" t="n">
+        <v>0.315085</v>
+      </c>
+      <c r="X430" t="n">
+        <v>0.268975</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>0.21518</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>0.146015</v>
+      </c>
+      <c r="AB430" t="n">
+        <v>0.4408161</v>
+      </c>
+      <c r="AC430" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD430" t="n">
+        <v>0.161385</v>
+      </c>
+      <c r="AE430" t="n">
+        <v>0.1937</v>
       </c>
     </row>
   </sheetData>
